--- a/data/trans_orig/FREC_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en País Vasco</t>
+          <t>Frecuencia de consumición de tabaco en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Andalucia</t>
+          <t>Frecuencia de consumición de tabaco en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5576,7 +5576,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en C.Valenciana</t>
+          <t>Frecuencia de consumición de tabaco en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Barcelona</t>
+          <t>Frecuencia de consumición de tabaco en Barcelona (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FREC_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>9963</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>6887</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8637</t>
+          <t>13998</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>9063</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3123</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6865</t>
+          <t>14149</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10641</t>
+          <t>19025</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>8258</t>
+          <t>14304</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>13418</t>
+          <t>25190</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,34 +884,34 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>438</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>125</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>1,07%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>7</t>
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>505</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>5023</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18588</t>
+          <t>29455</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15596</t>
+          <t>23853</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21409</t>
+          <t>34977</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>40,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7415</t>
+          <t>10983</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>7740</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10060</t>
+          <t>14715</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>26003</t>
+          <t>40438</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>22041</t>
+          <t>33679</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>30144</t>
+          <t>47992</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16961</t>
+          <t>32393</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14105</t>
+          <t>27036</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19772</t>
+          <t>38486</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56806</t>
+          <t>95865</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53790</t>
+          <t>90294</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>59497</t>
+          <t>100628</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>77,19%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>73766</t>
+          <t>128258</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>69081</t>
+          <t>119822</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>78177</t>
+          <t>136497</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>65,99%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
+          <t>72,09%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42096</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>69682</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>111778</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46144</t>
+          <t>101036</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40932</t>
+          <t>89156</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52084</t>
+          <t>114377</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38101</t>
+          <t>66708</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33467</t>
+          <t>57010</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43109</t>
+          <t>76701</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>84245</t>
+          <t>167744</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>77123</t>
+          <t>152904</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>91827</t>
+          <t>184928</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7462</t>
+          <t>18373</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5614</t>
+          <t>13420</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9971</t>
+          <t>25195</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>8083</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>5017</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6871</t>
+          <t>13202</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12018</t>
+          <t>26456</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9300</t>
+          <t>20211</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15075</t>
+          <t>34634</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92940</t>
+          <t>173921</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86529</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>99395</t>
+          <t>190561</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63564</t>
+          <t>118442</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>57677</t>
+          <t>106416</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>69490</t>
+          <t>130832</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>156504</t>
+          <t>292363</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>147606</t>
+          <t>274145</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>165226</t>
+          <t>312194</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>34,0%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81852</t>
+          <t>173869</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>75640</t>
+          <t>159873</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88251</t>
+          <t>189778</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>127400</t>
+          <t>257881</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>120389</t>
+          <t>243464</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>133616</t>
+          <t>272938</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>54,53%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>209252</t>
+          <t>431749</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>199641</t>
+          <t>411057</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>218127</t>
+          <t>453927</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>49,43%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>228398</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>233621</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>462019</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10369</t>
+          <t>25974</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7898</t>
+          <t>19595</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13105</t>
+          <t>33671</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17073</t>
+          <t>33645</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13577</t>
+          <t>26691</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20638</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>27442</t>
+          <t>59619</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>23518</t>
+          <t>49239</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>32625</t>
+          <t>70099</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>9676</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>5096</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4017</t>
+          <t>15175</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3458</t>
+          <t>9576</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>5786</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5154</t>
+          <t>15509</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>6028</t>
+          <t>19251</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>13683</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>8340</t>
+          <t>27981</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29749</t>
+          <t>64688</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25993</t>
+          <t>54651</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33675</t>
+          <t>74811</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36787</t>
+          <t>84800</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>32717</t>
+          <t>73614</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>41344</t>
+          <t>97012</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>66536</t>
+          <t>149488</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>60952</t>
+          <t>135744</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>72469</t>
+          <t>166563</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>36,35%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39004</t>
+          <t>105542</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35113</t>
+          <t>94588</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42692</t>
+          <t>116996</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>50626</t>
+          <t>124334</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>46037</t>
+          <t>112575</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>55364</t>
+          <t>136686</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>54,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>89629</t>
+          <t>229876</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>83258</t>
+          <t>214173</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>95646</t>
+          <t>245116</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>43,9%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>53,49%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81692</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>107944</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>189635</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>62442</t>
+          <t>136972</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56699</t>
+          <t>122331</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>69319</t>
+          <t>154722</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59887</t>
+          <t>109416</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>54004</t>
+          <t>97059</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>66447</t>
+          <t>123184</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>122329</t>
+          <t>246388</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>112856</t>
+          <t>226620</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>131935</t>
+          <t>265976</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>16,99%</t>
         </is>
       </c>
     </row>
@@ -2556,102 +2556,102 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10651</t>
+          <t>29242</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8074</t>
+          <t>21610</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13671</t>
+          <t>38713</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18097</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12433</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>24998</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>47339</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>38353</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>58607</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
           <t>3,02%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>8763</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>6502</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>11519</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>2,13%</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>19414</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>16108</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>23745</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>141276</t>
+          <t>268064</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>133033</t>
+          <t>250303</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>148641</t>
+          <t>286338</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>107765</t>
+          <t>214225</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>99212</t>
+          <t>197403</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115731</t>
+          <t>232885</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>249042</t>
+          <t>482289</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>237833</t>
+          <t>456413</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>261188</t>
+          <t>506923</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>32,37%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>137817</t>
+          <t>311803</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>129698</t>
+          <t>292085</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>145546</t>
+          <t>331570</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>234830</t>
+          <t>478080</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>226202</t>
+          <t>459464</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>244172</t>
+          <t>498929</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>55,0%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>372647</t>
+          <t>789883</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>360970</t>
+          <t>763939</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>385003</t>
+          <t>819798</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>52,35%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>352186</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>763432</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>53982</t>
+          <t>55131</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>80664</t>
+          <t>81286</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>36938</t>
+          <t>37538</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57280</t>
+          <t>57638</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>96365</t>
+          <t>97428</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>129603</t>
+          <t>130599</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8803</t>
+          <t>7767</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3404,12 +3404,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10070</t>
+          <t>10547</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3439,12 +3439,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>13315</t>
+          <t>13451</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58850</t>
+          <t>57949</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83552</t>
+          <t>82733</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22819</t>
+          <t>22339</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41874</t>
+          <t>40441</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -3552,12 +3552,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>86709</t>
+          <t>85091</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>118289</t>
+          <t>117961</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>18,79%</t>
         </is>
       </c>
     </row>
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76059</t>
+          <t>75702</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>104024</t>
+          <t>104665</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3610,12 +3610,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>301310</t>
+          <t>302003</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>327504</t>
+          <t>328703</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>82,18%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3665,12 +3665,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>385338</t>
+          <t>385891</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>427830</t>
+          <t>427013</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3680,12 +3680,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>68,14%</t>
+          <t>68,01%</t>
         </is>
       </c>
     </row>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>175314</t>
+          <t>163619</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>372058</t>
+          <t>371107</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -3860,12 +3860,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>160451</t>
+          <t>162335</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314702</t>
+          <t>308388</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>394418</t>
+          <t>386840</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>653488</t>
+          <t>646012</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>23,13%</t>
         </is>
       </c>
     </row>
@@ -3938,12 +3938,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19982</t>
+          <t>17555</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62418</t>
+          <t>63218</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9570</t>
+          <t>9158</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27294</t>
+          <t>26746</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3988,47 +3988,47 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>55065</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>36189</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>84771</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
           <t>1,97%</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>55065</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>32371</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>81086</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>219132</t>
+          <t>219934</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>829966</t>
+          <t>858625</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4066,12 +4066,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80649</t>
+          <t>76381</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>157426</t>
+          <t>157011</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>312431</t>
+          <t>320660</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1092626</t>
+          <t>1194125</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>42,75%</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>383380</t>
+          <t>370206</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>792329</t>
+          <t>793924</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,26%</t>
+          <t>56,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>900341</t>
+          <t>905085</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1127533</t>
+          <t>1133368</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>65,0%</t>
+          <t>65,34%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>81,82%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>1252746</t>
+          <t>1184377</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1891814</t>
+          <t>1877655</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>67,72%</t>
+          <t>67,21%</t>
         </is>
       </c>
     </row>
@@ -4394,12 +4394,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>48463</t>
+          <t>49012</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>79547</t>
+          <t>79582</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>45259</t>
+          <t>46192</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>71680</t>
+          <t>72180</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>100274</t>
+          <t>100592</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>140953</t>
+          <t>141595</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>3547</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14663</t>
+          <t>14974</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9676</t>
+          <t>9735</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23307</t>
+          <t>24261</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>15966</t>
+          <t>15617</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>33584</t>
+          <t>32438</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4592,12 +4592,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -4620,12 +4620,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>94484</t>
+          <t>93663</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>130114</t>
+          <t>130838</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53549</t>
+          <t>54049</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>78384</t>
+          <t>78810</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>155129</t>
+          <t>156191</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>201425</t>
+          <t>201285</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4705,12 +4705,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>22,35%</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>255992</t>
+          <t>255559</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>299082</t>
+          <t>298530</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>55,58%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,05%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>285206</t>
+          <t>284533</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>319446</t>
+          <t>318669</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4783,12 +4783,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,7%</t>
+          <t>64,55%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>552630</t>
+          <t>554506</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>609093</t>
+          <t>610120</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>61,57%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>67,74%</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>284750</t>
+          <t>291475</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>501389</t>
+          <t>498615</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>254643</t>
+          <t>241342</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>408699</t>
+          <t>404415</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>623427</t>
+          <t>620790</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>884459</t>
+          <t>879246</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5048,12 +5048,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -5076,12 +5076,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29571</t>
+          <t>27952</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73837</t>
+          <t>74967</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25242</t>
+          <t>25774</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>50259</t>
+          <t>50700</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>63140</t>
+          <t>62032</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>116491</t>
+          <t>109895</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>406537</t>
+          <t>407253</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1121413</t>
+          <t>1102821</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>52,58%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>159674</t>
+          <t>156744</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>257762</t>
+          <t>255934</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>593317</t>
+          <t>604097</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1521651</t>
+          <t>1578073</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5274,12 +5274,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>36,51%</t>
         </is>
       </c>
     </row>
@@ -5302,12 +5302,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>654581</t>
+          <t>669362</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1160143</t>
+          <t>1158138</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>55,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5337,12 +5337,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1525057</t>
+          <t>1528552</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1781378</t>
+          <t>1790198</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>80,08%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5372,12 +5372,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2134666</t>
+          <t>2187573</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2871373</t>
+          <t>2843886</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5387,12 +5387,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>50,62%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>65,8%</t>
         </is>
       </c>
     </row>
@@ -8286,12 +8286,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11154</t>
+          <t>10541</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24672</t>
+          <t>24219</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8321,12 +8321,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10276</t>
+          <t>10615</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16846</t>
+          <t>16809</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>31844</t>
+          <t>33499</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8371,12 +8371,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>20,86%</t>
         </is>
       </c>
     </row>
@@ -8399,12 +8399,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>374</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10238</t>
+          <t>10498</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8414,12 +8414,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8434,12 +8434,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>548</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3384</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8449,12 +8449,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8469,12 +8469,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>13652</t>
+          <t>11475</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8484,12 +8484,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -8512,12 +8512,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24146</t>
+          <t>24701</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42323</t>
+          <t>43354</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8527,12 +8527,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>57,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9140</t>
+          <t>8774</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21958</t>
+          <t>22411</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -8582,12 +8582,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>36672</t>
+          <t>36243</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>60875</t>
+          <t>60379</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -8597,12 +8597,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,6%</t>
         </is>
       </c>
     </row>
@@ -8625,12 +8625,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15635</t>
+          <t>15395</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32817</t>
+          <t>33084</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -8640,12 +8640,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55380</t>
+          <t>54574</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68970</t>
+          <t>68950</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8675,12 +8675,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>64,38%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>81,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>72726</t>
+          <t>72298</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>97415</t>
+          <t>97181</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8710,12 +8710,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>60,51%</t>
         </is>
       </c>
     </row>
@@ -8855,12 +8855,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69190</t>
+          <t>68602</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91179</t>
+          <t>90477</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -8870,12 +8870,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -8890,12 +8890,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58246</t>
+          <t>57950</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>79453</t>
+          <t>80018</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -8905,12 +8905,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -8925,12 +8925,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>133237</t>
+          <t>131113</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>163976</t>
+          <t>162894</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -8940,12 +8940,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>23,74%</t>
         </is>
       </c>
     </row>
@@ -8968,12 +8968,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16483</t>
+          <t>16394</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30225</t>
+          <t>29597</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -8983,12 +8983,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8742</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18558</t>
+          <t>19024</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9018,12 +9018,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9038,12 +9038,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>27212</t>
+          <t>27089</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>44669</t>
+          <t>44185</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9053,12 +9053,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -9081,12 +9081,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>107229</t>
+          <t>108004</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>131898</t>
+          <t>131086</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76523</t>
+          <t>75562</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>98014</t>
+          <t>98878</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9131,12 +9131,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>189173</t>
+          <t>190299</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>222255</t>
+          <t>223624</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9166,12 +9166,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>32,59%</t>
         </is>
       </c>
     </row>
@@ -9194,12 +9194,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>110353</t>
+          <t>111059</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>136146</t>
+          <t>135625</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9209,12 +9209,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -9229,12 +9229,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>161896</t>
+          <t>161924</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>187237</t>
+          <t>188170</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>47,23%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -9264,12 +9264,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>280271</t>
+          <t>279840</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>318539</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9279,12 +9279,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>46,05%</t>
         </is>
       </c>
     </row>
@@ -9424,12 +9424,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29953</t>
+          <t>30133</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44965</t>
+          <t>45557</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9439,12 +9439,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9459,12 +9459,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>31601</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>48120</t>
+          <t>46927</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9494,12 +9494,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>65669</t>
+          <t>65047</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>86498</t>
+          <t>86439</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8303</t>
+          <t>8597</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18399</t>
+          <t>18084</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9552,12 +9552,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10187</t>
+          <t>9950</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20303</t>
+          <t>20068</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9587,12 +9587,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -9607,12 +9607,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>20918</t>
+          <t>20651</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>35589</t>
+          <t>34812</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -9622,12 +9622,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -9650,12 +9650,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>63031</t>
+          <t>62960</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>81304</t>
+          <t>82061</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -9685,12 +9685,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>69811</t>
+          <t>70456</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>92713</t>
+          <t>90840</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>33,29%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -9720,12 +9720,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>139202</t>
+          <t>137844</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>166854</t>
+          <t>165432</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -9735,12 +9735,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>33,26%</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88906</t>
+          <t>88419</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>107789</t>
+          <t>109034</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -9778,12 +9778,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -9798,12 +9798,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>131736</t>
+          <t>133653</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>154870</t>
+          <t>156049</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -9813,12 +9813,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -9833,12 +9833,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>226406</t>
+          <t>226999</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>256419</t>
+          <t>258038</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -9848,12 +9848,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>51,88%</t>
         </is>
       </c>
     </row>
@@ -9993,12 +9993,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>117997</t>
+          <t>117630</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>147845</t>
+          <t>147172</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10008,12 +10008,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>99970</t>
+          <t>99157</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>128226</t>
+          <t>127158</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10043,12 +10043,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10063,12 +10063,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>224723</t>
+          <t>224725</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>266657</t>
+          <t>265109</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>19,72%</t>
         </is>
       </c>
     </row>
@@ -10106,12 +10106,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29531</t>
+          <t>28939</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>48095</t>
+          <t>48584</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10121,12 +10121,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10141,12 +10141,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>21997</t>
+          <t>21454</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>37282</t>
+          <t>36405</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>55421</t>
+          <t>55420</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>77979</t>
+          <t>78711</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>206741</t>
+          <t>207422</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>241908</t>
+          <t>246330</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10234,12 +10234,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>38,61%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10254,12 +10254,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>166393</t>
+          <t>165348</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>198892</t>
+          <t>200150</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10269,12 +10269,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -10289,12 +10289,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>380879</t>
+          <t>384132</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>430155</t>
+          <t>432659</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10304,12 +10304,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>32,19%</t>
         </is>
       </c>
     </row>
@@ -10332,12 +10332,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>227820</t>
+          <t>224857</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>264531</t>
+          <t>261269</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10347,12 +10347,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10367,12 +10367,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>364210</t>
+          <t>362671</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>401889</t>
+          <t>400800</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10382,12 +10382,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>51,58%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>601015</t>
+          <t>597355</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>653814</t>
+          <t>652238</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10417,12 +10417,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>48,52%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/FREC_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FREC_TABACO-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Frecuencia de consumición de tabaco en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9963</t>
+          <t>71873</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6887</t>
+          <t>59498</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13998</t>
+          <t>88064</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9063</t>
+          <t>52454</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>41911</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14149</t>
+          <t>63884</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>155</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>19025</t>
+          <t>124327</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14304</t>
+          <t>108162</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>25190</t>
+          <t>142350</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>20,6%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4279</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>6321</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>11961</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>7945</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>5023</t>
+          <t>15276</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -957,72 +957,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29455</t>
+          <t>76350</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23853</t>
+          <t>62450</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34977</t>
+          <t>88842</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10983</t>
+          <t>31928</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7740</t>
+          <t>23517</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14715</t>
+          <t>42189</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>40438</t>
+          <t>108278</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>33679</t>
+          <t>92296</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>47992</t>
+          <t>126018</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>18,24%</t>
         </is>
       </c>
     </row>
@@ -1070,107 +1070,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32393</t>
+          <t>106534</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27036</t>
+          <t>91335</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38486</t>
+          <t>121950</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>47,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>561</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95865</t>
+          <t>343815</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90294</t>
+          <t>329236</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>100628</t>
+          <t>357144</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>75,77%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>82,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>679</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>128258</t>
+          <t>450349</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>119822</t>
+          <t>428775</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>136497</t>
+          <t>471749</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>72,09%</t>
+          <t>68,28%</t>
         </is>
       </c>
     </row>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73004</t>
+          <t>256380</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1218,22 +1218,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>116349</t>
+          <t>434519</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1253,22 +1253,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>989</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>189353</t>
+          <t>690899</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>101036</t>
+          <t>321434</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89156</t>
+          <t>285852</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>114377</t>
+          <t>360399</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>66708</t>
+          <t>271712</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57010</t>
+          <t>245452</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76701</t>
+          <t>300171</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>618</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>167744</t>
+          <t>593146</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>152904</t>
+          <t>552249</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>184928</t>
+          <t>637308</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18373</t>
+          <t>37991</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13420</t>
+          <t>23350</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25195</t>
+          <t>57083</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8083</t>
+          <t>20172</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5017</t>
+          <t>12866</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13202</t>
+          <t>29628</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>26456</t>
+          <t>58163</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20211</t>
+          <t>42026</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>34634</t>
+          <t>81677</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
@@ -1526,107 +1526,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>173921</t>
+          <t>214443</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>160924</t>
+          <t>190096</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>190561</t>
+          <t>245430</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>190</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>118442</t>
+          <t>136276</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>106416</t>
+          <t>116994</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>130832</t>
+          <t>154489</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>412</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>292363</t>
+          <t>350720</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>274145</t>
+          <t>317550</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>312194</t>
+          <t>385804</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>15,09%</t>
         </is>
       </c>
     </row>
@@ -1639,107 +1639,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>595</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>173869</t>
+          <t>712677</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>159873</t>
+          <t>668585</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>189778</t>
+          <t>754410</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>58,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>257881</t>
+          <t>841857</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>243464</t>
+          <t>810758</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>272938</t>
+          <t>871797</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>60,5%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>431749</t>
+          <t>1554535</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>411057</t>
+          <t>1502622</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>453927</t>
+          <t>1605812</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>60,81%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>62,81%</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286545</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286545</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>467198</t>
+          <t>1286545</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1787,22 +1787,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1270017</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1270017</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>451114</t>
+          <t>1270017</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2556563</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2556563</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>918312</t>
+          <t>2556563</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25974</t>
+          <t>71269</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19595</t>
+          <t>55531</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33671</t>
+          <t>88648</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33645</t>
+          <t>62013</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26691</t>
+          <t>50178</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>77663</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>147</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>59619</t>
+          <t>133282</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>49239</t>
+          <t>112943</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>70099</t>
+          <t>156532</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -1982,107 +1982,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9676</t>
+          <t>11694</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5096</t>
+          <t>5914</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15175</t>
+          <t>20462</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9576</t>
+          <t>17240</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5786</t>
+          <t>11359</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15509</t>
+          <t>26453</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>19251</t>
+          <t>28934</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>13683</t>
+          <t>20309</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>27981</t>
+          <t>40259</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -2095,107 +2095,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>64688</t>
+          <t>118583</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>54651</t>
+          <t>100811</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>74811</t>
+          <t>139439</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>84800</t>
+          <t>72079</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>73614</t>
+          <t>60265</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>97012</t>
+          <t>86777</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>232</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>149488</t>
+          <t>190662</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>135744</t>
+          <t>168594</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>166563</t>
+          <t>217968</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>21,72%</t>
         </is>
       </c>
     </row>
@@ -2208,107 +2208,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>105542</t>
+          <t>308333</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94588</t>
+          <t>284642</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>116996</t>
+          <t>330952</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>55,83%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>458</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>124334</t>
+          <t>342110</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>112575</t>
+          <t>323172</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>136686</t>
+          <t>358984</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>739</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>229876</t>
+          <t>650443</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>214173</t>
+          <t>621510</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>245116</t>
+          <t>679504</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>50,17%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>67,73%</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>205880</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2356,22 +2356,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>665</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>493442</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>493442</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>252354</t>
+          <t>493442</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1003322</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1003322</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>458234</t>
+          <t>1003322</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2438,107 +2438,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>136972</t>
+          <t>464575</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>122331</t>
+          <t>423935</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>154722</t>
+          <t>509248</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>507</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>109416</t>
+          <t>386179</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>97059</t>
+          <t>353447</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>123184</t>
+          <t>423083</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>920</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>246388</t>
+          <t>850755</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>226620</t>
+          <t>794152</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>265976</t>
+          <t>905515</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -2551,107 +2551,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29242</t>
+          <t>51309</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21610</t>
+          <t>35123</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>38713</t>
+          <t>73042</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>18097</t>
+          <t>43733</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>12433</t>
+          <t>33228</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>24998</t>
+          <t>56802</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>47339</t>
+          <t>95042</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>38353</t>
+          <t>75005</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>58607</t>
+          <t>116752</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -2664,107 +2664,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>268064</t>
+          <t>409376</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>250303</t>
+          <t>373244</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>286338</t>
+          <t>447912</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>343</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>214225</t>
+          <t>240284</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>197403</t>
+          <t>214994</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>232885</t>
+          <t>266418</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>789</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>482289</t>
+          <t>649660</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>456413</t>
+          <t>604745</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>506923</t>
+          <t>695346</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>16,36%</t>
         </is>
       </c>
     </row>
@@ -2777,107 +2777,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>994</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>311803</t>
+          <t>1127544</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>292085</t>
+          <t>1074883</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>331570</t>
+          <t>1179371</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>54,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>52,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>478080</t>
+          <t>1527783</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>459464</t>
+          <t>1488156</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>498929</t>
+          <t>1567209</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>69,51%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>2235</t>
+          <t>3086</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>789883</t>
+          <t>2655326</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>763939</t>
+          <t>2591862</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>819798</t>
+          <t>2719868</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>48,79%</t>
+          <t>60,97%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>52,35%</t>
+          <t>63,99%</t>
         </is>
       </c>
     </row>
@@ -2890,22 +2890,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2052804</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2052804</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>746081</t>
+          <t>2052804</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2925,22 +2925,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2197979</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2197979</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>819818</t>
+          <t>2197979</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2960,22 +2960,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4889</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4250783</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4250783</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1565899</t>
+          <t>4250783</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3061,7 +3061,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Frecuencia de consumición de tabaco en Barcelona (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3246,107 +3246,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66791</t>
+          <t>17052</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55131</t>
+          <t>10541</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81286</t>
+          <t>24219</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47130</t>
+          <t>6200</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37538</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57638</t>
+          <t>10615</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>113921</t>
+          <t>23252</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>97428</t>
+          <t>16809</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>130599</t>
+          <t>33499</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>20,86%</t>
         </is>
       </c>
     </row>
@@ -3359,72 +3359,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>374</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7767</t>
+          <t>10498</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5455</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>548</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10547</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3434,32 +3434,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>6997</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>3317</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>13451</t>
+          <t>11475</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -3472,107 +3472,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70648</t>
+          <t>32957</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57949</t>
+          <t>24701</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82733</t>
+          <t>43354</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>57,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30169</t>
+          <t>14289</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22339</t>
+          <t>8774</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>40441</t>
+          <t>22411</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>116</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>100816</t>
+          <t>47246</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>85091</t>
+          <t>36243</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>117961</t>
+          <t>60379</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>37,6%</t>
         </is>
       </c>
     </row>
@@ -3585,107 +3585,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90313</t>
+          <t>23137</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75702</t>
+          <t>15395</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>104665</t>
+          <t>33084</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>164</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>315782</t>
+          <t>62865</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>302003</t>
+          <t>54574</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>328703</t>
+          <t>68950</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,24%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>64,38%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>82,48%</t>
+          <t>81,33%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>209</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>406095</t>
+          <t>86002</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>385891</t>
+          <t>72298</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>427013</t>
+          <t>97181</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>53,55%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>60,51%</t>
         </is>
       </c>
     </row>
@@ -3698,22 +3698,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>75821</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>75821</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229294</t>
+          <t>75821</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3733,22 +3733,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>231</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>398536</t>
+          <t>84774</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3768,22 +3768,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>391</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>160595</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>160595</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>627830</t>
+          <t>160595</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3815,32 +3815,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>294963</t>
+          <t>78784</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>163619</t>
+          <t>68602</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>371107</t>
+          <t>90477</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -3850,72 +3850,72 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>250434</t>
+          <t>68393</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>162335</t>
+          <t>57950</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>308388</t>
+          <t>80018</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>545397</t>
+          <t>147177</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>386840</t>
+          <t>131113</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>646012</t>
+          <t>162894</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>23,74%</t>
         </is>
       </c>
     </row>
@@ -3928,107 +3928,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38224</t>
+          <t>22105</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17555</t>
+          <t>16394</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63218</t>
+          <t>29597</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16840</t>
+          <t>12863</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9158</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26746</t>
+          <t>19024</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>55065</t>
+          <t>34967</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>36189</t>
+          <t>27089</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>84771</t>
+          <t>44185</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -4041,107 +4041,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>433987</t>
+          <t>119375</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>219934</t>
+          <t>108004</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>858625</t>
+          <t>131086</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>198</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>123221</t>
+          <t>86682</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76381</t>
+          <t>75562</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>157011</t>
+          <t>98878</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>465</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>557208</t>
+          <t>206058</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>320660</t>
+          <t>190299</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1194125</t>
+          <t>223624</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>42,75%</t>
+          <t>32,59%</t>
         </is>
       </c>
     </row>
@@ -4154,107 +4154,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>641216</t>
+          <t>123073</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>370206</t>
+          <t>111059</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>793924</t>
+          <t>135625</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>994649</t>
+          <t>174892</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>905085</t>
+          <t>161924</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1133368</t>
+          <t>188170</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>51,01%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>47,23%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>54,89%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>682</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>1635866</t>
+          <t>297965</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>1184377</t>
+          <t>279840</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1877655</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>46,05%</t>
         </is>
       </c>
     </row>
@@ -4267,22 +4267,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>760</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1408390</t>
+          <t>343337</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1408390</t>
+          <t>343337</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1408390</t>
+          <t>343337</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4302,22 +4302,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>780</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1385145</t>
+          <t>342830</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1385145</t>
+          <t>342830</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1385145</t>
+          <t>342830</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4337,22 +4337,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2793536</t>
+          <t>686167</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2793536</t>
+          <t>686167</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2793536</t>
+          <t>686167</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4384,107 +4384,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>62986</t>
+          <t>36909</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49012</t>
+          <t>30133</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>79582</t>
+          <t>45557</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>57379</t>
+          <t>39204</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>46192</t>
+          <t>31601</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>72180</t>
+          <t>46927</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>120365</t>
+          <t>76113</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>100592</t>
+          <t>65047</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>141595</t>
+          <t>86439</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -4497,107 +4497,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7808</t>
+          <t>12575</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>8597</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14974</t>
+          <t>18084</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15217</t>
+          <t>14280</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9735</t>
+          <t>9950</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24261</t>
+          <t>20068</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>23025</t>
+          <t>26855</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>15617</t>
+          <t>20651</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>32438</t>
+          <t>34812</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -4610,107 +4610,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>110899</t>
+          <t>71745</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93663</t>
+          <t>62960</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>130838</t>
+          <t>82061</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>231</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>65574</t>
+          <t>80821</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>54049</t>
+          <t>70456</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>78810</t>
+          <t>90840</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>441</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>176473</t>
+          <t>152566</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>156191</t>
+          <t>137844</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>201285</t>
+          <t>165432</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>33,26%</t>
         </is>
       </c>
     </row>
@@ -4723,107 +4723,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>278108</t>
+          <t>97644</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>255559</t>
+          <t>88419</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>298530</t>
+          <t>109034</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>60,48%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>302642</t>
+          <t>144194</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>284533</t>
+          <t>133653</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>318669</t>
+          <t>156049</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>51,78%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>659</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>580749</t>
+          <t>241838</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>554506</t>
+          <t>226999</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>610120</t>
+          <t>258038</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>61,57%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>51,88%</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>218873</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -4871,22 +4871,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>749</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>440812</t>
+          <t>278499</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>440812</t>
+          <t>278499</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>440812</t>
+          <t>278499</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>900613</t>
+          <t>497372</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>900613</t>
+          <t>497372</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>900613</t>
+          <t>497372</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -4953,107 +4953,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>424740</t>
+          <t>132745</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>291475</t>
+          <t>117630</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>498615</t>
+          <t>147172</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>278</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>354944</t>
+          <t>113798</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>241342</t>
+          <t>99157</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>404415</t>
+          <t>127158</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>583</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>779684</t>
+          <t>246543</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>620790</t>
+          <t>224725</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>879246</t>
+          <t>265109</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>19,72%</t>
         </is>
       </c>
     </row>
@@ -5066,107 +5066,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>47574</t>
+          <t>37355</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27952</t>
+          <t>28939</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>74967</t>
+          <t>48584</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>37513</t>
+          <t>28563</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25774</t>
+          <t>21454</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>50700</t>
+          <t>36405</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>149</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>85087</t>
+          <t>65918</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>62032</t>
+          <t>55420</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>109895</t>
+          <t>78711</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -5179,107 +5179,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>615534</t>
+          <t>224077</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>407253</t>
+          <t>207422</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1102821</t>
+          <t>246330</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>38,61%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>470</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>218964</t>
+          <t>181792</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>156744</t>
+          <t>165348</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>255934</t>
+          <t>200150</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>834498</t>
+          <t>405870</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>604097</t>
+          <t>384132</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>1578073</t>
+          <t>432659</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>32,19%</t>
         </is>
       </c>
     </row>
@@ -5292,107 +5292,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>606</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1009636</t>
+          <t>243854</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>669362</t>
+          <t>224857</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1158138</t>
+          <t>261269</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>944</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1613073</t>
+          <t>381950</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1528552</t>
+          <t>362671</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1790198</t>
+          <t>400800</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>2622710</t>
+          <t>625804</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2187573</t>
+          <t>597355</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2843886</t>
+          <t>652238</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>60,68%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>48,52%</t>
         </is>
       </c>
     </row>
@@ -5405,22 +5405,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2097485</t>
+          <t>638031</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2097485</t>
+          <t>638031</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2097485</t>
+          <t>638031</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5440,22 +5440,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2224494</t>
+          <t>706103</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2224494</t>
+          <t>706103</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2224494</t>
+          <t>706103</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5475,22 +5475,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4321979</t>
+          <t>1344134</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4321979</t>
+          <t>1344134</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4321979</t>
+          <t>1344134</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8091,7 +8091,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia de consumición de tabaco en Barcelona (tasa de respuesta: 99,94%)</t>
+          <t>Frecuencia de consumición de tabaco en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8276,107 +8276,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17052</t>
+          <t>9963</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10541</t>
+          <t>6887</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24219</t>
+          <t>13998</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6200</t>
+          <t>9063</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10615</t>
+          <t>14149</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>23252</t>
+          <t>19025</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16809</t>
+          <t>14304</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>33499</t>
+          <t>25190</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -8394,102 +8394,102 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2675</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10498</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1420</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>548</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>3158</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>505</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>11475</t>
+          <t>5023</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -8502,107 +8502,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32957</t>
+          <t>29455</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24701</t>
+          <t>23853</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43354</t>
+          <t>34977</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>40,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14289</t>
+          <t>10983</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8774</t>
+          <t>7740</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22411</t>
+          <t>14715</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>145</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>47246</t>
+          <t>40438</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>36243</t>
+          <t>33679</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>60379</t>
+          <t>47992</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -8615,107 +8615,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23137</t>
+          <t>32393</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15395</t>
+          <t>27036</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33084</t>
+          <t>38486</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>338</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62865</t>
+          <t>95865</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54574</t>
+          <t>90294</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68950</t>
+          <t>100628</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>64,38%</t>
+          <t>77,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>438</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>86002</t>
+          <t>128258</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>72298</t>
+          <t>119822</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>97181</t>
+          <t>136497</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>72,09%</t>
         </is>
       </c>
     </row>
@@ -8728,22 +8728,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75821</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75821</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75821</t>
+          <t>73004</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -8763,22 +8763,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>84774</t>
+          <t>116349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -8798,22 +8798,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>652</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>160595</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>160595</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>160595</t>
+          <t>189353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -8845,107 +8845,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78784</t>
+          <t>101036</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68602</t>
+          <t>89156</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90477</t>
+          <t>114377</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68393</t>
+          <t>66708</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57950</t>
+          <t>57010</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80018</t>
+          <t>76701</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>147177</t>
+          <t>167744</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131113</t>
+          <t>152904</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>162894</t>
+          <t>184928</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -8958,107 +8958,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22105</t>
+          <t>18373</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16394</t>
+          <t>13420</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29597</t>
+          <t>25195</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12863</t>
+          <t>8083</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>5017</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19024</t>
+          <t>13202</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>34967</t>
+          <t>26456</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>27089</t>
+          <t>20211</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>44185</t>
+          <t>34634</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -9071,107 +9071,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>546</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>119375</t>
+          <t>173921</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>108004</t>
+          <t>160924</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>131086</t>
+          <t>190561</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86682</t>
+          <t>118442</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75562</t>
+          <t>106416</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>98878</t>
+          <t>130832</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>915</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>206058</t>
+          <t>292363</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>190299</t>
+          <t>274145</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>223624</t>
+          <t>312194</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>34,0%</t>
         </is>
       </c>
     </row>
@@ -9184,107 +9184,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>123073</t>
+          <t>173869</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>111059</t>
+          <t>159873</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>135625</t>
+          <t>189778</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>750</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>174892</t>
+          <t>257881</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>161924</t>
+          <t>243464</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>188170</t>
+          <t>272938</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>297965</t>
+          <t>431749</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>279840</t>
+          <t>411057</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>453927</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>44,76%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>49,43%</t>
         </is>
       </c>
     </row>
@@ -9297,22 +9297,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>343337</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>343337</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>343337</t>
+          <t>467198</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9332,22 +9332,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>342830</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>342830</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>342830</t>
+          <t>451114</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9367,22 +9367,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>686167</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>686167</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>686167</t>
+          <t>918312</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9414,107 +9414,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25974</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19595</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>33671</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>36909</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>30133</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>45557</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,86%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,77%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>20,81%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>39204</t>
+          <t>33645</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>31601</t>
+          <t>26691</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>46927</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>158</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>76113</t>
+          <t>59619</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>65047</t>
+          <t>49239</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>86439</t>
+          <t>70099</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
           <t>15,3%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>13,08%</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -9527,107 +9527,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12575</t>
+          <t>9676</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8597</t>
+          <t>5096</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18084</t>
+          <t>15175</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14280</t>
+          <t>9576</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9950</t>
+          <t>5786</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20068</t>
+          <t>15509</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>26855</t>
+          <t>19251</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>20651</t>
+          <t>13683</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>34812</t>
+          <t>27981</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -9640,107 +9640,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>71745</t>
+          <t>64688</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>62960</t>
+          <t>54651</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>82061</t>
+          <t>74811</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>80821</t>
+          <t>84800</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>70456</t>
+          <t>73614</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>90840</t>
+          <t>97012</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
+          <t>38,44%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>149488</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>135744</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>166563</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
           <t>32,62%</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>441</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>152566</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>137844</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>165432</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>30,67%</t>
-        </is>
-      </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>36,35%</t>
         </is>
       </c>
     </row>
@@ -9753,107 +9753,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>97644</t>
+          <t>105542</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88419</t>
+          <t>94588</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>109034</t>
+          <t>116996</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>51,26%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45,94%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>56,83%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>124334</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>112575</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>136686</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>49,27%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
           <t>44,61%</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>40,4%</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>49,82%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>374</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>144194</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>133653</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>156049</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>51,78%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>47,99%</t>
-        </is>
-      </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>56,03%</t>
+          <t>54,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>563</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>241838</t>
+          <t>229876</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>226999</t>
+          <t>214173</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>258038</t>
+          <t>245116</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>53,49%</t>
         </is>
       </c>
     </row>
@@ -9866,22 +9866,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>218873</t>
+          <t>205880</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -9901,22 +9901,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>278499</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>278499</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>278499</t>
+          <t>252354</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -9936,22 +9936,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>497372</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>497372</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>497372</t>
+          <t>458234</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -9983,107 +9983,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>132745</t>
+          <t>136972</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>117630</t>
+          <t>122331</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>147172</t>
+          <t>154722</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>343</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>113798</t>
+          <t>109416</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>99157</t>
+          <t>97059</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>127158</t>
+          <t>123184</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>246543</t>
+          <t>246388</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>224725</t>
+          <t>226620</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>265109</t>
+          <t>265976</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>16,99%</t>
         </is>
       </c>
     </row>
@@ -10096,107 +10096,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>37355</t>
+          <t>29242</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28939</t>
+          <t>21610</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>48584</t>
+          <t>38713</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>28563</t>
+          <t>18097</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>21454</t>
+          <t>12433</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>36405</t>
+          <t>24998</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>124</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>65918</t>
+          <t>47339</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>55420</t>
+          <t>38353</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>78711</t>
+          <t>58607</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -10209,107 +10209,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>224077</t>
+          <t>268064</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>207422</t>
+          <t>250303</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>246330</t>
+          <t>286338</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>35,12%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>635</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>181792</t>
+          <t>214225</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>165348</t>
+          <t>197403</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>200150</t>
+          <t>232885</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>405870</t>
+          <t>482289</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>384132</t>
+          <t>456413</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>432659</t>
+          <t>506923</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>32,19%</t>
+          <t>32,37%</t>
         </is>
       </c>
     </row>
@@ -10322,107 +10322,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>822</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>243854</t>
+          <t>311803</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>224857</t>
+          <t>292085</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>261269</t>
+          <t>331570</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>381950</t>
+          <t>478080</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>362671</t>
+          <t>459464</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>400800</t>
+          <t>498929</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>625804</t>
+          <t>789883</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>597355</t>
+          <t>763939</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>652238</t>
+          <t>819798</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>52,35%</t>
         </is>
       </c>
     </row>
@@ -10435,22 +10435,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>638031</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>638031</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>638031</t>
+          <t>746081</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10470,22 +10470,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>2443</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>706103</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>706103</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>706103</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10505,22 +10505,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3304</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1344134</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1344134</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1344134</t>
+          <t>1565899</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
